--- a/data/trans_orig/EDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,29</t>
+          <t>54,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>51,95</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46,88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>47,42</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>51,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>54,52</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,23</t>
+          <t>49,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>49,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>46,33</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>47,81</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>48,92</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,84</t>
+          <t>51,96</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>50,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45,75</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>46,87</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>49,74</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>51,72</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,98; 50,58</t>
+          <t>53,29; 55,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,85; 48,93</t>
+          <t>50,09; 53,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,95; 52,92</t>
+          <t>45,65; 48,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,51; 55,66</t>
+          <t>45,87; 48,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,86; 47,58</t>
+          <t>48,28; 50,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,84; 47,66</t>
+          <t>47,57; 50,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,45; 49,22</t>
+          <t>43,11; 45,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,99; 49,88</t>
+          <t>44,89; 47,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 48,7</t>
+          <t>51,1; 52,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,83; 47,93</t>
+          <t>49,38; 52,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,59; 50,73</t>
+          <t>44,83; 46,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,48</t>
+          <t>45,79; 47,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,24</t>
+          <t>53,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>50,4</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47,83</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>49,67</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>51,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>53,1</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,78</t>
+          <t>54,02</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>47,15</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46,07</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>51,33</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>46,47</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>54,4</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,41</t>
+          <t>53,63</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>48,95</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,88</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>50,62</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>49,1</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>53,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,59; 51,68</t>
+          <t>51,66; 54,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,34; 51,72</t>
+          <t>48,14; 52,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,52; 52,94</t>
+          <t>46,44; 49,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,67</t>
+          <t>47,51; 51,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,4; 48,2</t>
+          <t>52,7; 55,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,22</t>
+          <t>45,53; 48,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,05; 47,74</t>
+          <t>44,86; 47,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,2; 55,55</t>
+          <t>49,59; 53,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,34; 49,53</t>
+          <t>52,61; 54,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,38; 52,16</t>
+          <t>47,49; 50,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 50,12</t>
+          <t>45,96; 47,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,95; 54,78</t>
+          <t>49,24; 51,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>51,38</t>
+          <t>57,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>52,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47,78</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>55,8</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>52,45</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>57,84</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,43</t>
+          <t>59,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>56,89</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49,7</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>66,01</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>55,55</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>59,5</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,4</t>
+          <t>58,05</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>53,13</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48,38</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>59,62</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>53,28</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>58,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,53; 52,97</t>
+          <t>56,41; 58,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,06; 58,73</t>
+          <t>50,55; 54,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,12; 53,94</t>
+          <t>45,98; 49,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,77; 58,79</t>
+          <t>52,65; 59,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,25; 53,64</t>
+          <t>57,28; 61,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,48; 70,76</t>
+          <t>52,55; 59,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,76; 57,86</t>
+          <t>47,47; 51,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,78; 61,23</t>
+          <t>60,47; 70,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,04; 52,8</t>
+          <t>57,03; 59,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,7; 62,28</t>
+          <t>51,44; 55,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,98; 54,53</t>
+          <t>47,04; 49,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,48; 59,09</t>
+          <t>56,68; 62,42</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,32</t>
+          <t>54,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>49,45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,09</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>47,65</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>51,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>54,56</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,53</t>
+          <t>54,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>53,57</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,29</t>
+          <t>45,99</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>49,78</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,46</t>
+          <t>54,34</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,68</t>
+          <t>51,69</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,24</t>
+          <t>47,52</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>48,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,08; 52,61</t>
+          <t>53,11; 55,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 50,01</t>
+          <t>47,62; 51,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,83; 52,29</t>
+          <t>47,89; 50,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,52; 55,56</t>
+          <t>45,51; 50,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,37; 48,9</t>
+          <t>53,09; 55,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,42; 52,44</t>
+          <t>46,72; 61,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,47; 55,13</t>
+          <t>44,74; 47,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 55,6</t>
+          <t>47,48; 52,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,56; 50,34</t>
+          <t>53,54; 55,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,06; 50,5</t>
+          <t>48,11; 58,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,97; 53,29</t>
+          <t>46,65; 48,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,77; 55,35</t>
+          <t>47,09; 50,36</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,51</t>
+          <t>52,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>47,84</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>42,9</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>50,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>54,2</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>60,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>50,11</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>56,39</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>54,08</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>61,5</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,76</t>
+          <t>57,91</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>49,36</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>51,5</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>52,61</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>58,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,65; 49,39</t>
+          <t>51,16; 54,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,41; 47,27</t>
+          <t>44,61; 50,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,32; 51,75</t>
+          <t>44,12; 47,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,76; 55,78</t>
+          <t>39,15; 47,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 51,52</t>
+          <t>59,54; 62,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,49; 59,45</t>
+          <t>43,54; 53,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,57; 55,18</t>
+          <t>46,69; 50,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,37; 62,53</t>
+          <t>53,57; 59,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,34; 49,93</t>
+          <t>56,69; 58,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,75; 53,86</t>
+          <t>45,29; 51,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,53; 53,66</t>
+          <t>45,88; 48,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,79; 59,69</t>
+          <t>48,92; 53,91</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,8</t>
+          <t>25,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,75</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,13</t>
+          <t>35,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,03</t>
+          <t>29,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,59</t>
+          <t>55,77</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,72</t>
+          <t>52,83</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,83</t>
+          <t>49,47</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,55</t>
+          <t>44,84</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,37</t>
+          <t>47,33</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>38,1</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>45,96</t>
+          <t>43,61</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>42,03</t>
+          <t>39,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,06; 45,07</t>
+          <t>23,81; 27,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 34,08</t>
+          <t>21,61; 25,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,89; 24,69</t>
+          <t>29,66; 43,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 23,31</t>
+          <t>25,67; 35,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,09; 58,42</t>
+          <t>53,49; 58,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,86; 48,95</t>
+          <t>50,46; 55,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,75; 54,62</t>
+          <t>42,58; 55,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,67; 53,54</t>
+          <t>39,08; 49,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,49; 50,8</t>
+          <t>45,45; 49,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,89; 42,26</t>
+          <t>43,09; 47,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,18; 47,6</t>
+          <t>38,52; 48,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,38; 43,55</t>
+          <t>35,64; 43,57</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>50,04</t>
+          <t>52,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>47,63</t>
+          <t>48,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48,99</t>
+          <t>47,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52,17</t>
+          <t>47,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,79</t>
+          <t>55,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,69</t>
+          <t>51,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>46,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,58</t>
+          <t>50,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48,98</t>
+          <t>54,07</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49,23</t>
+          <t>50,03</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>50,06</t>
+          <t>46,97</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>53,42</t>
+          <t>49,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,39; 50,72</t>
+          <t>52,32; 53,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>46,59; 48,62</t>
+          <t>47,24; 49,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,28; 49,77</t>
+          <t>46,96; 48,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 52,74</t>
+          <t>46,79; 48,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,12; 48,4</t>
+          <t>54,52; 55,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,48; 51,72</t>
+          <t>49,21; 55,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,79</t>
+          <t>45,66; 46,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,04; 55,16</t>
+          <t>49,75; 51,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,49; 49,42</t>
+          <t>53,66; 54,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,49; 50,11</t>
+          <t>48,79; 52,44</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>49,5; 50,98</t>
+          <t>46,52; 47,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,05; 53,81</t>
+          <t>48,63; 50,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en años</t>
+          <t>Edad media en años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,51</t>
+          <t>53,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,36</t>
+          <t>49,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51,96</t>
+          <t>51,33</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,29; 55,68</t>
+          <t>52,1; 54,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,09; 53,78</t>
+          <t>50,16; 53,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 48,98</t>
+          <t>45,89; 48,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,28; 50,48</t>
+          <t>48,38; 50,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,57; 50,87</t>
+          <t>47,4; 50,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,89; 47,8</t>
+          <t>44,97; 47,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,74</t>
+          <t>50,56; 52,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 52,05</t>
+          <t>49,34; 51,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,79; 47,82</t>
+          <t>45,83; 47,86</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,11</t>
+          <t>53,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,02</t>
+          <t>53,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,63</t>
+          <t>53,15</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,66; 54,88</t>
+          <t>51,51; 54,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,14; 52,29</t>
+          <t>48,27; 52,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,51; 51,81</t>
+          <t>47,46; 51,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,7; 55,2</t>
+          <t>52,05; 54,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,53; 48,75</t>
+          <t>45,59; 48,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,59; 53,08</t>
+          <t>49,55; 53,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,61; 54,65</t>
+          <t>52,15; 54,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,49; 50,19</t>
+          <t>47,57; 50,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,24; 51,96</t>
+          <t>49,3; 52,11</t>
         </is>
       </c>
     </row>
@@ -936,47 +936,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>56,66</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47,78</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55,8</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59,95</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56,89</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49,7</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>66,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>57,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>52,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>47,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>55,8</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>59,2</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>56,89</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>49,7</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>66,01</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>58,05</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,41; 58,79</t>
+          <t>55,48; 57,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,55; 54,73</t>
+          <t>50,99; 54,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,65; 59,09</t>
+          <t>52,74; 58,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,28; 61,03</t>
+          <t>57,9; 62,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,55; 59,82</t>
+          <t>52,57; 59,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,47; 70,47</t>
+          <t>60,99; 70,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,03; 59,06</t>
+          <t>56,53; 58,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51,44; 55,67</t>
+          <t>51,22; 55,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,68; 62,42</t>
+          <t>57,04; 62,46</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,36</t>
+          <t>52,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,31</t>
+          <t>53,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,34</t>
+          <t>53,24</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,11; 55,55</t>
+          <t>51,84; 54,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,62; 51,15</t>
+          <t>47,55; 51,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,51; 50,05</t>
+          <t>45,77; 50,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,09; 55,46</t>
+          <t>52,31; 54,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,72; 61,63</t>
+          <t>46,84; 60,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,48; 52,56</t>
+          <t>47,48; 52,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,54; 55,21</t>
+          <t>52,42; 54,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,11; 58,08</t>
+          <t>48,05; 57,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,09; 50,36</t>
+          <t>47,2; 50,59</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,99</t>
+          <t>52,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,76</t>
+          <t>60,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,91</t>
+          <t>57,24</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,16; 54,94</t>
+          <t>50,68; 54,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,61; 50,5</t>
+          <t>44,79; 50,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,15; 47,56</t>
+          <t>39,09; 47,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,54; 62,0</t>
+          <t>58,63; 61,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,54; 53,75</t>
+          <t>43,87; 53,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,57; 59,19</t>
+          <t>53,27; 59,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,69; 58,94</t>
+          <t>56,08; 58,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,29; 51,9</t>
+          <t>44,53; 51,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,92; 53,91</t>
+          <t>49,02; 53,87</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,48</t>
+          <t>24,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,77</t>
+          <t>55,41</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,33</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,81; 27,5</t>
+          <t>23,15; 25,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,21</t>
+          <t>21,63; 25,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,67; 35,33</t>
+          <t>25,55; 35,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,49; 58,16</t>
+          <t>53,33; 57,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,46; 55,24</t>
+          <t>50,05; 55,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,08; 49,73</t>
+          <t>39,62; 49,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,45; 49,3</t>
+          <t>43,98; 47,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43,09; 47,58</t>
+          <t>43,02; 47,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,64; 43,57</t>
+          <t>35,82; 43,37</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,93</t>
+          <t>51,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,11</t>
+          <t>54,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,07</t>
+          <t>53,07</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,32; 53,49</t>
+          <t>50,93; 52,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,24; 49,54</t>
+          <t>47,38; 49,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,79; 48,86</t>
+          <t>46,78; 48,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,52; 55,67</t>
+          <t>53,87; 55,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,21; 55,57</t>
+          <t>49,46; 56,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,75; 51,97</t>
+          <t>49,72; 51,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>53,66; 54,56</t>
+          <t>52,62; 53,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,79; 52,44</t>
+          <t>48,88; 53,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,63; 50,18</t>
+          <t>48,68; 50,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>51,99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47,42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46,88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>53,33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>51,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>46,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>47,42</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>49,37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46,33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>49,4</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,16</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>44,54</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>46,33</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>50,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,87</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45,75</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>51,33</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>50,7</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>45,75</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>46,87</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>50,36; 53,77</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45,89; 48,97</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45,65; 48,1</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>52,1; 54,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>50,16; 53,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>45,65; 48,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>45,89; 48,97</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>47,58; 50,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44,97; 47,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43,11; 45,84</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>48,38; 50,39</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>47,4; 50,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>43,11; 45,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>44,97; 47,75</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>49,53; 52,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45,83; 47,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44,83; 46,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>50,56; 52,06</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>49,34; 51,96</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>44,83; 46,64</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>45,83; 47,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>50,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49,67</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47,83</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>53,03</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>50,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>47,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>49,67</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>47,35</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51,33</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46,07</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>53,24</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>47,15</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>46,07</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51,33</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>49,07</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50,62</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,88</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>53,15</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>48,95</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>46,88</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>50,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>48,47; 52,37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47,46; 51,82</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46,44; 49,24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>51,51; 54,65</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>48,27; 52,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>46,44; 49,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>47,46; 51,82</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>45,74; 48,83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49,55; 53,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44,86; 47,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>52,05; 54,61</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>45,59; 48,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>44,86; 47,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49,55; 53,0</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>47,82; 50,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,3; 52,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45,96; 47,78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>52,15; 54,17</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>47,57; 50,26</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>45,96; 47,78</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>49,3; 52,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>53,15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47,78</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>56,66</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>52,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>47,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>55,8</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>56,24</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66,01</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49,7</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>59,95</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>56,89</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>49,7</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>66,01</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>54,08</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59,62</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48,38</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>57,6</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>53,13</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>48,38</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>59,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>50,78; 55,42</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52,74; 58,75</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45,98; 49,44</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>55,48; 57,72</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>50,99; 54,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>45,98; 49,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>52,74; 58,75</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>52,13; 59,41</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60,99; 70,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47,47; 51,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>57,9; 62,03</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>52,57; 59,96</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>47,47; 51,81</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>60,99; 70,69</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>51,83; 55,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57,04; 62,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47,04; 49,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>56,53; 58,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>51,22; 55,4</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>47,04; 49,77</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>57,04; 62,46</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>49,22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47,65</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,09</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>52,97</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>49,45</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>47,65</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>46,72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49,78</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45,99</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>53,5</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>53,57</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>45,99</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,78</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>48,11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48,7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47,52</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>53,24</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>51,69</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>47,52</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>48,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>47,49; 51,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45,77; 50,19</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47,89; 50,32</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>51,84; 54,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>47,55; 51,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>47,89; 50,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>45,77; 50,19</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>45,46; 48,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47,48; 52,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 47,25</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>52,31; 54,67</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>46,84; 60,77</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>44,74; 47,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>47,48; 52,45</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>46,87; 49,09</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47,2; 50,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46,65; 48,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>52,42; 54,09</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>48,05; 57,76</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>46,65; 48,38</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>47,2; 50,59</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>47,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42,9</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>52,56</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>47,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>45,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>42,9</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>52,44</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56,39</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>60,02</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>50,11</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>48,51</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>56,39</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>50,54</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51,5</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>57,24</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>49,36</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>47,27</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>51,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>45,22; 49,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39,09; 47,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44,12; 47,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>50,68; 54,47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>44,79; 50,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>44,12; 47,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>39,09; 47,12</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>50,73; 53,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53,27; 59,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46,69; 50,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>58,63; 61,29</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>43,87; 53,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>46,69; 50,28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>53,27; 59,62</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>49,14; 51,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,02; 53,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45,88; 48,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>56,08; 58,35</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>44,53; 51,86</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>45,88; 48,33</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>49,02; 53,87</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>23,48</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29,89</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35,94</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>24,49</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>23,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>35,94</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>29,89</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>52,15</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44,84</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49,47</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>55,41</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>52,83</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>49,47</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>44,84</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>45,38</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39,37</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43,61</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>45,73</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>45,3</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>43,61</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>39,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>21,98; 25,51</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25,55; 35,47</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29,66; 43,35</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>23,15; 25,96</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,63; 25,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>29,66; 43,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>25,55; 35,47</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>49,77; 54,48</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 49,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42,58; 55,2</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>53,33; 57,87</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>50,05; 55,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>42,58; 55,2</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>39,62; 49,84</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>43,28; 47,37</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35,82; 43,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 48,56</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>43,98; 47,76</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>43,02; 47,46</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>38,52; 48,56</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>35,82; 43,37</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>48,12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>47,77</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47,58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>51,55</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>48,43</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>47,58</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>47,77</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>50,14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>50,81</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46,32</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>54,43</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>51,54</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>46,32</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>50,81</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>49,16</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>49,37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46,97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>53,07</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>50,03</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>46,97</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>49,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>47,13; 49,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46,78; 48,81</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>46,96; 48,22</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>50,93; 52,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>47,38; 49,59</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>46,96; 48,22</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>46,78; 48,81</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>49,27; 50,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>49,72; 51,94</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 46,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>53,87; 55,09</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>49,46; 56,12</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>45,66; 46,97</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>49,72; 51,94</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>48,51; 49,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,68; 50,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46,52; 47,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>52,62; 53,48</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>48,88; 53,46</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>46,52; 47,47</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>48,68; 50,11</t>
         </is>
       </c>
     </row>
